--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D1DD0A-4D06-4F55-B80A-C4E414CCA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD668C-1653-4A98-AFA2-D16ED223CA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21255" yWindow="3330" windowWidth="38700" windowHeight="15435" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
+    <workbookView xWindow="12900" yWindow="3330" windowWidth="38700" windowHeight="15435" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Problem</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>4mins 23secs</t>
+  </si>
+  <si>
+    <t>402. Remove K Digits</t>
   </si>
 </sst>
 </file>
@@ -97,8 +100,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +447,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +456,20 @@
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
@@ -471,63 +477,74 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>44609</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>44609</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>44609</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>44609</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44610</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD668C-1653-4A98-AFA2-D16ED223CA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490ECE5-CAE2-45D6-9BE5-6C7C62BDC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="3330" windowWidth="38700" windowHeight="15435" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Problem</t>
   </si>
@@ -83,6 +83,25 @@
   </si>
   <si>
     <t>402. Remove K Digits</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>11mins 45secs</t>
+  </si>
+  <si>
+    <t>Still looked at a solution (although minor issue).  Wrote pop instead of pop(). 
+Resolve recommended.</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>4mins 30secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used recursion. There is a way to do this without recursion - using stack. </t>
   </si>
 </sst>
 </file>
@@ -125,11 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +478,7 @@
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,6 +568,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44610</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44610</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490ECE5-CAE2-45D6-9BE5-6C7C62BDC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1D003-8EC2-A948-AC7B-F2C8ABBA55FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3330" windowWidth="38700" windowHeight="15435" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
+    <workbookView xWindow="8960" yWindow="980" windowWidth="19840" windowHeight="15440" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Problem</t>
   </si>
@@ -102,6 +92,24 @@
   </si>
   <si>
     <t xml:space="preserve">Used recursion. There is a way to do this without recursion - using stack. </t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>3mins 3 secs</t>
+  </si>
+  <si>
+    <t>used too much space.</t>
+  </si>
+  <si>
+    <t>3mins</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>couldn't get the right answer in at first try. Reversal found looking at the solution.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +125,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,10 +156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,22 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +503,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -526,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -540,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -554,8 +563,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2">
@@ -568,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -581,11 +590,11 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -600,6 +609,40 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44611</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44611</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1D003-8EC2-A948-AC7B-F2C8ABBA55FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD294E-605F-334A-A1FD-5747EC4FE1E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8960" yWindow="980" windowWidth="19840" windowHeight="15440" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Problem</t>
   </si>
@@ -110,6 +110,27 @@
   </si>
   <si>
     <t>couldn't get the right answer in at first try. Reversal found looking at the solution.</t>
+  </si>
+  <si>
+    <t>1288. Remove Covered Intervals</t>
+  </si>
+  <si>
+    <t>Couldn't finish in reasonable time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came up with the greedy solution but missed the corner case where it had same starting point. </t>
+  </si>
+  <si>
+    <t>594. Longest Harmonic Subsequence</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy </t>
+  </si>
+  <si>
+    <t>9mins 10secs</t>
   </si>
 </sst>
 </file>
@@ -474,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,6 +666,51 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44612</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44612</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44612</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD294E-605F-334A-A1FD-5747EC4FE1E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80134E17-18B0-4B6E-B8DE-169B57EA4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="980" windowWidth="19840" windowHeight="15440" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
+    <workbookView xWindow="19755" yWindow="2745" windowWidth="9045" windowHeight="12855" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Problem</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>9mins 10secs</t>
+  </si>
+  <si>
+    <t>171. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>17mins 33 secs</t>
+  </si>
+  <si>
+    <t>Looked into solution after 7mins</t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>10mins</t>
   </si>
 </sst>
 </file>
@@ -495,23 +510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -584,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -598,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -615,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -632,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -649,7 +664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -666,7 +681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -683,7 +698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -697,7 +712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -709,6 +724,51 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44613</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44613</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44613</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80134E17-18B0-4B6E-B8DE-169B57EA4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D460731-C0D8-C849-A796-62C6BEE9DF59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19755" yWindow="2745" windowWidth="9045" windowHeight="12855" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Problem</t>
   </si>
@@ -146,13 +146,28 @@
   </si>
   <si>
     <t>10mins</t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>17mins 48secs</t>
+  </si>
+  <si>
+    <t>165. compare version numbers</t>
+  </si>
+  <si>
+    <t>876. middle of the linked list</t>
+  </si>
+  <si>
+    <t>2mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,10 +177,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,14 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,265 +531,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44609</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44609</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44609</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44609</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44610</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44610</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>44610</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>44611</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>44611</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>44612</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>44612</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>44612</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>44613</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>44613</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>44613</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D460731-C0D8-C849-A796-62C6BEE9DF59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84373521-5E81-5547-B2EB-99D4DCD061BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Problem</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>2mins</t>
+  </si>
+  <si>
+    <t>74. search a 2d matrix</t>
+  </si>
+  <si>
+    <t>7mins</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -217,6 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -844,6 +851,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44617</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84373521-5E81-5547-B2EB-99D4DCD061BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D8A53-CBE6-3844-80EE-CB5F9F599E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Problem</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>7mins</t>
+  </si>
+  <si>
+    <t>39. combination Sum</t>
+  </si>
+  <si>
+    <t>9min 30secs</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -865,6 +871,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44617</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D8A53-CBE6-3844-80EE-CB5F9F599E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851925FA-52DF-E349-B745-3412D2ED0CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{4BF3595C-A4B7-4DC1-A1CA-DD4308C0B236}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Problem</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>9min 30secs</t>
+  </si>
+  <si>
+    <t>662. maximum width of the binary tree</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A235B-84CC-485B-B27A-3CBB078FD36D}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,6 +888,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44618</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371CD88-FAF9-47D2-98C5-EF62AA2357B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="10620" yWindow="1680" windowWidth="21450" windowHeight="16095" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,195 +25,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date (MM/DD/YYYY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time took to finish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39. Combination Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">couldn't finish in reasonable time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64. Minimum Path Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575. Distribute Candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412. Fizz Buzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4mins 23secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402. Remove K Digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. Generate Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11mins 45secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still looked at a solution (although minor issue).  Wrote pop instead of pop(). 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Date (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Time took to finish</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>couldn't finish in reasonable time</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>575. Distribute Candies</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>5mins</t>
+  </si>
+  <si>
+    <t>412. Fizz Buzz</t>
+  </si>
+  <si>
+    <t>4mins 23secs</t>
+  </si>
+  <si>
+    <t>402. Remove K Digits</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>11mins 45secs</t>
+  </si>
+  <si>
+    <t>Still looked at a solution (although minor issue).  Wrote pop instead of pop(). 
 Resolve recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4mins 30secs</t>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>4mins 30secs</t>
   </si>
   <si>
     <t xml:space="preserve">Used recursion. There is a way to do this without recursion - using stack. </t>
   </si>
   <si>
-    <t xml:space="preserve">125. Valid Palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3mins 3 secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used too much space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">couldn't get the right answer in at first try. Reversal found looking at the solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1288. Remove Covered Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couldn't finish in reasonable time</t>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>3mins 3 secs</t>
+  </si>
+  <si>
+    <t>used too much space.</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>3mins</t>
+  </si>
+  <si>
+    <t>couldn't get the right answer in at first try. Reversal found looking at the solution.</t>
+  </si>
+  <si>
+    <t>1288. Remove Covered Intervals</t>
+  </si>
+  <si>
+    <t>Couldn't finish in reasonable time</t>
   </si>
   <si>
     <t xml:space="preserve">Came up with the greedy solution but missed the corner case where it had same starting point. </t>
   </si>
   <si>
-    <t xml:space="preserve">594. Longest Harmonic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118. Pascal's Triangle</t>
+    <t>594. Longest Harmonic Subsequence</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
   </si>
   <si>
     <t xml:space="preserve">Easy </t>
   </si>
   <si>
-    <t xml:space="preserve">9mins 10secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171. Excel Sheet Column Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17mins 33 secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looked into solution after 7mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73. Set Matrix Zeroes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148. Sort List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165. compare version numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17mins 48secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">876. middle of the linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74. search a 2d matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39. combination Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9min 30secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662. maximum width of the binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couldn’t concentrate late at night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228. Summary Ranges</t>
+    <t>9mins 10secs</t>
+  </si>
+  <si>
+    <t>171. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>17mins 33 secs</t>
+  </si>
+  <si>
+    <t>Looked into solution after 7mins</t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>165. compare version numbers</t>
+  </si>
+  <si>
+    <t>17mins 48secs</t>
+  </si>
+  <si>
+    <t>876. middle of the linked list</t>
+  </si>
+  <si>
+    <t>2mins</t>
+  </si>
+  <si>
+    <t>74. search a 2d matrix</t>
+  </si>
+  <si>
+    <t>7mins</t>
+  </si>
+  <si>
+    <t>39. combination Sum</t>
+  </si>
+  <si>
+    <t>9min 30secs</t>
+  </si>
+  <si>
+    <t>662. maximum width of the binary tree</t>
+  </si>
+  <si>
+    <t>Couldn’t concentrate late at night</t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>799. Champagne Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148. Sort List </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -227,7 +219,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -235,61 +227,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -348,33 +302,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32:D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="93.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.83"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,11 +653,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>44609</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -405,11 +667,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44609</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -419,11 +681,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44609</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -433,11 +695,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44609</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -447,11 +709,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44610</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -461,11 +723,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -478,11 +740,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44610</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -495,11 +757,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44611</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -512,11 +774,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44611</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -529,11 +791,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44612</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -546,11 +808,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44612</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -560,11 +822,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44612</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -574,11 +836,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -588,11 +850,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44613</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -605,11 +867,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44613</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -619,11 +881,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44616</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -633,11 +895,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44616</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -647,11 +909,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44616</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -661,11 +923,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -675,11 +937,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44617</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -689,11 +951,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>44618</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -703,11 +965,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>44619</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -720,11 +982,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>44619</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -737,13 +999,36 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44624</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44624</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371CD88-FAF9-47D2-98C5-EF62AA2357B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28ACD9-5155-440C-B0AF-B8F0273A1D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1680" windowWidth="21450" windowHeight="16095" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Problem</t>
   </si>
@@ -188,6 +188,27 @@
   </si>
   <si>
     <t xml:space="preserve">148. Sort List </t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>1min</t>
+  </si>
+  <si>
+    <t>There is a much better solution which I should've thought of…</t>
+  </si>
+  <si>
+    <t>82. Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>6mins</t>
+  </si>
+  <si>
+    <t>Looked into solution.</t>
   </si>
 </sst>
 </file>
@@ -620,15 +641,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
@@ -1027,6 +1048,85 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44628</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44628</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28ACD9-5155-440C-B0AF-B8F0273A1D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A619AFA2-F0A9-498D-809D-11CA23EF14F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Problem</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Looked into solution.</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>9mins 30secs</t>
   </si>
 </sst>
 </file>
@@ -641,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1133,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44630</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A619AFA2-F0A9-498D-809D-11CA23EF14F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44871A0-9010-614D-B51D-344D1519D4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Problem</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>9mins 30secs</t>
+  </si>
+  <si>
+    <t>138. Copy List With Random Pointer</t>
+  </si>
+  <si>
+    <t>Couldn't concentrate that day, took 6 hours to finish. Still came up solution on my own.</t>
+  </si>
+  <si>
+    <t>20. Validate Parenthesis</t>
   </si>
 </sst>
 </file>
@@ -647,23 +656,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="40.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -708,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -722,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -736,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -750,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -767,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -784,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -801,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -818,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -835,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -849,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -863,7 +872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -877,7 +886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,7 +903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -908,7 +917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -922,7 +931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -936,7 +945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -950,7 +959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -964,7 +973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -978,7 +987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1068,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1145,6 +1154,37 @@
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44632</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44633</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44871A0-9010-614D-B51D-344D1519D4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA045F7-38C9-A040-B7E7-AE48F7B9C8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>Problem</t>
   </si>
@@ -224,13 +224,22 @@
   </si>
   <si>
     <t>20. Validate Parenthesis</t>
+  </si>
+  <si>
+    <t>81. Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Couldn't record</t>
+  </si>
+  <si>
+    <t>I did it myself, relatively easy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +253,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -274,6 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -672,7 +689,7 @@
     <col min="6" max="1024" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -703,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -717,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -759,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -776,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -793,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -810,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -827,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -844,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -872,7 +889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -886,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -903,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -917,7 +934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -931,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -945,7 +962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -959,7 +976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -973,7 +990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1001,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1035,7 +1052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1077,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1094,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1173,7 +1190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1186,6 +1203,27 @@
       <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44635</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA045F7-38C9-A040-B7E7-AE48F7B9C8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93B18A-306E-CA45-9EB8-BF053E755F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Problem</t>
   </si>
@@ -233,13 +233,19 @@
   </si>
   <si>
     <t>I did it myself, relatively easy.</t>
+  </si>
+  <si>
+    <t>1007. Minimum Domino Rotations For Equal Row</t>
+  </si>
+  <si>
+    <t>17mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -255,11 +261,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
-      <name val="PingFang SC"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -676,12 +681,12 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
@@ -689,7 +694,7 @@
     <col min="6" max="1024" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -720,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -776,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -793,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -827,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -844,7 +849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -861,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -875,7 +880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -889,7 +894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -903,7 +908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,7 +925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -934,7 +939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -948,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -962,7 +967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -976,7 +981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -990,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1094,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1221,9 +1226,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44640</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93B18A-306E-CA45-9EB8-BF053E755F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC1A6B6-E961-7341-8B2B-A6404685C9B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Problem</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>17mins</t>
+  </si>
+  <si>
+    <t>1663. Smallest String With A Given Numeric Value</t>
   </si>
 </sst>
 </file>
@@ -254,15 +257,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF212121"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -290,12 +292,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,551 +696,588 @@
     <col min="6" max="1024" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>44609</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>44609</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>44609</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>44609</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>44610</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>44610</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>44610</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>44611</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>44611</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>44612</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>44612</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>44612</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>44613</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>44613</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>44613</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>44616</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>44616</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>44616</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>44617</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>44617</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>44618</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>44619</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>44619</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>44624</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>44624</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>44628</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>44628</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>44629</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>44629</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>44629</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>44630</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>44632</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>44633</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>44635</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>44640</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44642</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC1A6B6-E961-7341-8B2B-A6404685C9B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B15B131-C24D-E64B-9813-4E001E1F3706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Problem</t>
   </si>
@@ -242,13 +242,31 @@
   </si>
   <si>
     <t>1663. Smallest String With A Given Numeric Value</t>
+  </si>
+  <si>
+    <t>991. Broken Calculator</t>
+  </si>
+  <si>
+    <t>1337. The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>11mins</t>
+  </si>
+  <si>
+    <t>provided suboptimal problem</t>
+  </si>
+  <si>
+    <t>86. Partition List</t>
+  </si>
+  <si>
+    <t>15mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +285,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +330,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,6 +1313,53 @@
       </c>
       <c r="E37" s="3"/>
     </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44642</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44647</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44647</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B15B131-C24D-E64B-9813-4E001E1F3706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8934385-D25F-4A59-AFA0-3964271E36B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>Problem</t>
   </si>
@@ -260,13 +260,16 @@
   </si>
   <si>
     <t>15mins</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,30 +278,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,17 +312,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,651 +702,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>44609</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>44609</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>44609</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>44609</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>44610</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>44610</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>44610</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>44611</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>44611</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>44612</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>44612</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>44612</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>44613</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>44613</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>44613</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>44616</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>44616</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>44616</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>44617</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>44617</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>44618</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>44619</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>44619</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>44624</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>44624</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>44628</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>44628</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>44629</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>44629</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>44629</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>44630</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>44632</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>44633</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>44635</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>44640</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>44642</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>44642</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>44647</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>44647</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8934385-D25F-4A59-AFA0-3964271E36B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF7272-18F6-4A36-9B0B-0FECB12D78D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>Problem</t>
   </si>
@@ -263,13 +263,16 @@
   </si>
   <si>
     <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>90. Subsets II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,6 +289,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -320,6 +330,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,6 +1376,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF7272-18F6-4A36-9B0B-0FECB12D78D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3CEC2-0DE8-4ACA-AAA6-D0C81DC55867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>Problem</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>90. Subsets II</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,7 +302,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF212121"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,15 +328,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,664 +739,722 @@
     <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>44609</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>44609</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>44609</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>44609</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>44610</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>44610</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>44610</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>44611</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>44611</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>44612</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>44612</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>44612</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>44613</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>44613</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>44613</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>44616</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>44616</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>44616</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>44617</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>44617</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>44618</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>44619</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>44619</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>44624</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>44624</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>44628</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>44628</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>44629</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>44629</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>44629</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>44630</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>44632</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>44633</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>44635</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>44640</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>44642</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>44642</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>44647</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>44647</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>44650</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>44650</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>44650</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>44652</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44653</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="7">
+        <v>44653</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3CEC2-0DE8-4ACA-AAA6-D0C81DC55867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0DB47-C76C-4176-AF5F-F74C92B80355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>Problem</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,7 +343,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,15 +1450,31 @@
       <c r="A46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="4">
         <v>44653</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44654</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0DB47-C76C-4176-AF5F-F74C92B80355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB20FF-529F-4EE9-8D28-D8403906BE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>Problem</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>93. Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>1721. Swapping Nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>8mins</t>
   </si>
 </sst>
 </file>
@@ -725,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="A1:E47"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,6 +1485,36 @@
       </c>
       <c r="E47" s="3"/>
     </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44655</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44655</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB20FF-529F-4EE9-8D28-D8403906BE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5545FBE-CBF4-47FC-912B-9050C2E3FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>Problem</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>8mins</t>
+  </si>
+  <si>
+    <t>1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t>12mins</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,6 +1522,20 @@
       </c>
       <c r="E49" s="3"/>
     </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="7">
+        <v>44658</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5545FBE-CBF4-47FC-912B-9050C2E3FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C8A471-F4F3-46D1-9EC4-D7C9C69D9A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Problem</t>
   </si>
@@ -290,13 +290,16 @@
   </si>
   <si>
     <t>12mins</t>
+  </si>
+  <si>
+    <t>703. Kth Largest Element in a Stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -312,15 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,19 +342,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,776 +751,742 @@
     <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>44609</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>44609</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>44609</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>44609</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>44610</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>44610</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>44610</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>44611</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>44611</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>44612</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>44612</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>44612</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>44613</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>44613</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>44613</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>44616</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>44616</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>44616</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>44617</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>44617</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>44618</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>44619</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>44619</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>44624</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>44624</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>44628</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>44628</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>44629</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>44629</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>44629</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>44630</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>44632</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>44633</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>44635</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>44640</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>44642</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>44642</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>44647</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>44647</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>44650</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>44650</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>44650</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>44652</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>44653</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>44653</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>44654</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>44655</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>44655</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="2">
         <v>44658</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1534,6 +1494,20 @@
       </c>
       <c r="D50" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44659</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C8A471-F4F3-46D1-9EC4-D7C9C69D9A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C8CD6-C35D-4529-86D8-48A9F3EC4B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
   <si>
     <t>Problem</t>
   </si>
@@ -293,13 +293,16 @@
   </si>
   <si>
     <t>703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>682. Baseball Game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,6 +319,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -351,6 +361,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,6 +1523,20 @@
         <v>85</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44661</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C8CD6-C35D-4529-86D8-48A9F3EC4B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE858AB-5A2B-41DC-842B-473D5425D6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Problem</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>682. Baseball Game</t>
+  </si>
+  <si>
+    <t>1260. Shift 2D Grid</t>
   </si>
 </sst>
 </file>
@@ -748,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1540,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44663</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE858AB-5A2B-41DC-842B-473D5425D6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C91E8A-DDD6-5849-93C0-7D0A460B4F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>Problem</t>
   </si>
@@ -299,13 +299,16 @@
   </si>
   <si>
     <t>1260. Shift 2D Grid</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,25 +317,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -364,9 +358,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,23 +742,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -812,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -840,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -854,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -871,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -888,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -905,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -922,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -939,7 +930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -953,7 +944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -967,7 +958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -981,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -998,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1040,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1054,7 +1045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1068,7 +1059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1082,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1096,7 +1087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1144,7 +1135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1158,7 +1149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1172,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1220,7 +1211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1251,7 +1242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1268,7 +1259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1282,7 +1273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1299,7 +1290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -1313,7 +1304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1327,7 +1318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1341,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -1358,7 +1349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -1428,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1442,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1456,7 +1447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
@@ -1484,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -1498,7 +1489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
@@ -1512,7 +1503,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -1526,8 +1517,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="2">
@@ -1540,8 +1531,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="2">
@@ -1552,6 +1543,20 @@
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44665</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C91E8A-DDD6-5849-93C0-7D0A460B4F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF65E2-A3B8-4C24-A385-C74F2ABA5D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Problem</t>
   </si>
@@ -302,13 +302,16 @@
   </si>
   <si>
     <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,9 +327,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,15 +360,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,822 +754,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44609</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44609</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44609</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44609</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44610</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44610</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>44610</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>44611</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>44611</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>44612</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>44612</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>44612</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>44613</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>44613</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>44613</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>44616</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>44616</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>44616</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>44617</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>44617</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>44618</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>44619</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>44619</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>44624</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>44624</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>44628</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>44628</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>44629</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>44629</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>44629</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>44630</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>44632</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>44633</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>44635</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>44640</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>44642</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>44642</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>44647</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>44647</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>44650</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>44650</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>44650</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>44652</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>44653</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>44653</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>44654</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>44655</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>44655</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>44658</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>44659</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>44661</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>44663</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>44665</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44666</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF65E2-A3B8-4C24-A385-C74F2ABA5D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB91D7-7AED-9E44-B8B7-FC4BD9E7C76A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1680" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>Problem</t>
   </si>
@@ -305,13 +305,22 @@
   </si>
   <si>
     <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>16mins</t>
+  </si>
+  <si>
+    <t>bad solution due to only 5 percentile for space usage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -327,17 +336,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,16 +361,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,876 +754,853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44609</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44609</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44609</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44609</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44610</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>44610</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44610</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>44611</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>44611</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>44612</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>44612</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>44612</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>44613</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>44613</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>44613</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>44616</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>44616</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>44616</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>44617</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>44617</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>44618</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>44619</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>44619</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>44624</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>44624</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>44628</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>44628</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>44629</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>44629</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>44629</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>44630</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>44632</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>44633</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>44635</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>44640</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>44642</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>44642</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>44647</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>44647</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>44650</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>44650</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>44650</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>44652</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>44653</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>44653</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>44654</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>44655</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>44655</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>44658</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>44659</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>44661</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>44663</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>44665</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>44666</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44667</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB91D7-7AED-9E44-B8B7-FC4BD9E7C76A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B2387E-4F57-4E46-AB07-DF17CE378DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
   <si>
     <t>Problem</t>
   </si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>bad solution due to only 5 percentile for space usage</t>
+  </si>
+  <si>
+    <t>96. Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Not optimal, iterative is optimal but came up with recursive solution.</t>
   </si>
 </sst>
 </file>
@@ -754,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1611,37 @@
         <v>95</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44668</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44668</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B2387E-4F57-4E46-AB07-DF17CE378DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF860DF-A94C-4442-9A13-194255A0F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="1920" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
   <si>
     <t>Problem</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Not optimal, iterative is optimal but came up with recursive solution.</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
   </si>
 </sst>
 </file>
@@ -763,23 +766,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -824,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,7 +855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -866,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -883,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -900,7 +903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -917,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -934,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -951,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -965,7 +968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -979,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -993,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>90</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>92</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>93</v>
       </c>
@@ -1611,23 +1614,23 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44667</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B57" s="2">
-        <v>44668</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="B58" s="2">
         <v>44668</v>
@@ -1636,9 +1639,23 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44668</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>98</v>
       </c>
     </row>

--- a/leetcode_book.xlsx
+++ b/leetcode_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokyun\Desktop\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF860DF-A94C-4442-9A13-194255A0F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7640652-554C-AC42-B4EA-AFA6F292B75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="1920" windowWidth="24300" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="24300" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
   <si>
     <t>Problem</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
   </si>
 </sst>
 </file>
@@ -766,23 +769,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -841,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -855,7 +858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -869,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -886,7 +889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -903,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -920,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -937,7 +940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -954,7 +957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -968,7 +971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -982,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -996,7 +999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>90</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>92</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>93</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>97</v>
       </c>
@@ -1657,6 +1660,20 @@
       </c>
       <c r="E59" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44671</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
